--- a/results/AdvALSTM - Method 5.xlsx
+++ b/results/AdvALSTM - Method 5.xlsx
@@ -10,6 +10,7 @@
     <sheet name="AdvALSTM - Method 5 - Sentiment" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="temp" localSheetId="0">'AdvALSTM - Method 5 - Sentiment'!$L$2:$N$38</definedName>
     <definedName name="temp_1" localSheetId="0">'AdvALSTM - Method 5 - Sentiment'!$K$3:$M$38</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -28,11 +29,20 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="temp1" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\Charlton\Desktop\temp.txt" comma="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="229">
   <si>
     <t>ACC</t>
   </si>
@@ -491,6 +501,234 @@
   </si>
   <si>
     <t>52.56 ±0.12824</t>
+  </si>
+  <si>
+    <t>Concept Drift and Sentiment Change</t>
+  </si>
+  <si>
+    <t>52.61  ±0.14513</t>
+  </si>
+  <si>
+    <t>51.93  ±0.08725</t>
+  </si>
+  <si>
+    <t>53.73  ±0.10992</t>
+  </si>
+  <si>
+    <t>49.82  ±0.09874</t>
+  </si>
+  <si>
+    <t>50.37  ±0.09923</t>
+  </si>
+  <si>
+    <t>53.52  ±0.10691</t>
+  </si>
+  <si>
+    <t>53.14  ±0.08689</t>
+  </si>
+  <si>
+    <t>53.41  ±0.11567</t>
+  </si>
+  <si>
+    <t>51.3  ±0.12772</t>
+  </si>
+  <si>
+    <t>52.18  ±0.11982</t>
+  </si>
+  <si>
+    <t>51.85  ±0.13385</t>
+  </si>
+  <si>
+    <t>53.61  ±0.13072</t>
+  </si>
+  <si>
+    <t>54.05  ±0.14241</t>
+  </si>
+  <si>
+    <t>51.83  ±0.1208</t>
+  </si>
+  <si>
+    <t>52.44  ±0.13132</t>
+  </si>
+  <si>
+    <t>52.84  ±0.14466</t>
+  </si>
+  <si>
+    <t>51.12  ±0.15408</t>
+  </si>
+  <si>
+    <t>53.95  ±0.1347</t>
+  </si>
+  <si>
+    <t>53.18  ±0.1539</t>
+  </si>
+  <si>
+    <t>51.9  ±0.15125</t>
+  </si>
+  <si>
+    <t>53.07  ±0.14805</t>
+  </si>
+  <si>
+    <t>52.65  ±0.14341</t>
+  </si>
+  <si>
+    <t>53.27  ±0.16988</t>
+  </si>
+  <si>
+    <t>53.74  ±0.15097</t>
+  </si>
+  <si>
+    <t>51.07  ±0.14917</t>
+  </si>
+  <si>
+    <t>50.93  ±0.15577</t>
+  </si>
+  <si>
+    <t>50.97  ±0.15688</t>
+  </si>
+  <si>
+    <t>52.93  ±0.1432</t>
+  </si>
+  <si>
+    <t>54.17  ±0.14855</t>
+  </si>
+  <si>
+    <t>51.8  ±0.15073</t>
+  </si>
+  <si>
+    <t>52.04  ±0.1509</t>
+  </si>
+  <si>
+    <t>51.84  ±0.15086</t>
+  </si>
+  <si>
+    <t>52.22  ±0.14844</t>
+  </si>
+  <si>
+    <t>54.32  ±0.14424</t>
+  </si>
+  <si>
+    <t>53.61  ±0.1443</t>
+  </si>
+  <si>
+    <t>53.98  ±0.14411</t>
+  </si>
+  <si>
+    <t>53.39  ±0.1359</t>
+  </si>
+  <si>
+    <t>0.0472  ±0.05226</t>
+  </si>
+  <si>
+    <t>0.0732  ±0.08522</t>
+  </si>
+  <si>
+    <t>0.0488  ±0.07371</t>
+  </si>
+  <si>
+    <t>0.0619  ±0.11421</t>
+  </si>
+  <si>
+    <t>0.0825  ±0.11821</t>
+  </si>
+  <si>
+    <t>0.1056  ±0.11032</t>
+  </si>
+  <si>
+    <t>0.0999  ±0.1678</t>
+  </si>
+  <si>
+    <t>0.12  ±0.15474</t>
+  </si>
+  <si>
+    <t>0.1071  ±0.16246</t>
+  </si>
+  <si>
+    <t>0.1096  ±0.19563</t>
+  </si>
+  <si>
+    <t>0.1077  ±0.18406</t>
+  </si>
+  <si>
+    <t>0.1197  ±0.21479</t>
+  </si>
+  <si>
+    <t>0.1136  ±0.16564</t>
+  </si>
+  <si>
+    <t>0.0983  ±0.1822</t>
+  </si>
+  <si>
+    <t>0.1041  ±0.20192</t>
+  </si>
+  <si>
+    <t>0.0874  ±0.24247</t>
+  </si>
+  <si>
+    <t>0.1101  ±0.22891</t>
+  </si>
+  <si>
+    <t>0.0925  ±0.23627</t>
+  </si>
+  <si>
+    <t>0.0833  ±0.21312</t>
+  </si>
+  <si>
+    <t>0.1117  ±0.20833</t>
+  </si>
+  <si>
+    <t>0.1089  ±0.2094</t>
+  </si>
+  <si>
+    <t>0.1191  ±0.23336</t>
+  </si>
+  <si>
+    <t>0.1216  ±0.20978</t>
+  </si>
+  <si>
+    <t>0.0716  ±0.20734</t>
+  </si>
+  <si>
+    <t>0.0568  ±0.21743</t>
+  </si>
+  <si>
+    <t>0.0777  ±0.2242</t>
+  </si>
+  <si>
+    <t>0.0941  ±0.21967</t>
+  </si>
+  <si>
+    <t>0.1221  ±0.21559</t>
+  </si>
+  <si>
+    <t>0.0784  ±0.23364</t>
+  </si>
+  <si>
+    <t>0.0906  ±0.22895</t>
+  </si>
+  <si>
+    <t>0.0986  ±0.22603</t>
+  </si>
+  <si>
+    <t>0.1111  ±0.22563</t>
+  </si>
+  <si>
+    <t>0.1095  ±0.23417</t>
+  </si>
+  <si>
+    <t>0.0913  ±0.23709</t>
+  </si>
+  <si>
+    <t>0.1029  ±0.24322</t>
+  </si>
+  <si>
+    <t>0.0802  ±0.23868</t>
+  </si>
+  <si>
+    <t>0.093  ±0.23944</t>
+  </si>
+  <si>
+    <t>Number of retrain points:</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1235,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1011,13 +1249,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1074,6 +1309,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="temp_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1362,58 +1601,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="1"/>
+    <col min="8" max="8" width="2.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="41.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="3" style="1" customWidth="1"/>
+    <col min="13" max="13" width="43.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="48.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:14" ht="18.75">
+      <c r="C1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15.75">
+      <c r="G1" s="7"/>
+      <c r="I1" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="H2" s="5"/>
+      <c r="I2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -1429,12 +1682,20 @@
       <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75">
+      <c r="I3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75">
       <c r="A4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1446,8 +1707,16 @@
       <c r="G4" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>6</v>
       </c>
@@ -1463,8 +1732,16 @@
       <c r="G5" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -1480,8 +1757,16 @@
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -1497,15 +1782,23 @@
       <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75">
+      <c r="I7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="18.75">
       <c r="A8" s="1">
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1514,8 +1807,16 @@
       <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1531,9 +1832,16 @@
       <c r="G9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1549,8 +1857,16 @@
       <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1566,8 +1882,16 @@
       <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -1583,8 +1907,16 @@
       <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -1600,8 +1932,16 @@
       <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -1617,8 +1957,16 @@
       <c r="G14" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="I14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -1634,8 +1982,16 @@
       <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="I15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -1651,8 +2007,16 @@
       <c r="G16" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -1668,8 +2032,16 @@
       <c r="G17" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -1685,8 +2057,16 @@
       <c r="G18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -1702,8 +2082,16 @@
       <c r="G19" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -1719,8 +2107,16 @@
       <c r="G20" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -1736,8 +2132,16 @@
       <c r="G21" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="18.75">
+      <c r="I21" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -1747,14 +2151,22 @@
       <c r="D22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -1770,8 +2182,16 @@
       <c r="G23" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="18.75">
+      <c r="I23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -1784,11 +2204,19 @@
       <c r="F24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -1804,8 +2232,16 @@
       <c r="G25" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -1821,8 +2257,16 @@
       <c r="G26" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -1838,8 +2282,16 @@
       <c r="G27" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -1855,8 +2307,16 @@
       <c r="G28" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -1872,8 +2332,16 @@
       <c r="G29" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" ht="18.75">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -1889,8 +2357,16 @@
       <c r="G30" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -1906,8 +2382,16 @@
       <c r="G31" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -1923,8 +2407,16 @@
       <c r="G32" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -1940,8 +2432,16 @@
       <c r="G33" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="I33" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -1957,8 +2457,16 @@
       <c r="G34" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="I34" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+    </row>
+    <row r="35" spans="1:14" ht="18.75">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -1974,8 +2482,16 @@
       <c r="G35" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="I35" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -1991,8 +2507,16 @@
       <c r="G36" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="I36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -2008,8 +2532,16 @@
       <c r="G37" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -2025,8 +2557,16 @@
       <c r="G38" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -2042,18 +2582,45 @@
       <c r="G39" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1"/>
-    <row r="41" spans="1:7">
-      <c r="F41" s="7" t="e">
-        <f>MAX(#REF!)</f>
-        <v>#REF!</v>
+      <c r="I39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+    </row>
+    <row r="40" spans="1:14" s="3" customFormat="1"/>
+    <row r="41" spans="1:14">
+      <c r="C41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" s="1">
+        <v>184</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="1">
+        <v>115</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J41" s="1">
+        <v>89</v>
+      </c>
+      <c r="N41" s="1">
+        <f>MAX(N3:N39)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
